--- a/Python/Programs/ProgramTemplate_KpiPivot/Data/RAWDATA/rpt_KPI.xlsx
+++ b/Python/Programs/ProgramTemplate_KpiPivot/Data/RAWDATA/rpt_KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Programs\ProgramTemplate_KpiPivot\Data\RAWDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CD57C9-F16E-4371-AE1D-7708FB274CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045D38E-E3EE-4A68-8A99-6B5F13B921F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{080AAC67-078B-4726-9E53-21D29ED5E666}"/>
   </bookViews>
@@ -41,6 +41,30 @@
     <author>admin</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{533166AC-013E-48BE-8695-F15790E5A9B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to the function design, duplicated ID here will be discarded randomly. Hence please ensure the ID is unique</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FA1B4D9F-C4EB-4CC0-87C7-E3BD1DFF613D}">
       <text>
         <r>
@@ -179,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +232,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -577,7 +614,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
